--- a/data/scaled_data.xlsx
+++ b/data/scaled_data.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E339"/>
+  <dimension ref="A1:D365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -386,11 +386,6 @@
           <t>query</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>months</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -400,16 +395,11 @@
         <v>43831</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.8355086281801136</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -421,16 +411,11 @@
         <v>43862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000222675665191031</v>
+        <v>0.8962000433402744</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -442,16 +427,11 @@
         <v>43891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002735129396969089</v>
+        <v>0.9475165146068834</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -463,16 +443,11 @@
         <v>43922</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08771740637468611</v>
+        <v>0.5542135473012328</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -484,16 +459,11 @@
         <v>43952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2196702439488938</v>
+        <v>0.2271919719448969</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -505,16 +475,11 @@
         <v>43983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2185092494429607</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -526,16 +491,11 @@
         <v>44013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1817915727764294</v>
+        <v>0.0169427904205468</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -547,16 +507,11 @@
         <v>44044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1689716165553055</v>
+        <v>0.306929725707839</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -568,16 +523,11 @@
         <v>44075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2912723743528051</v>
+        <v>0.664140014972854</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -589,16 +539,11 @@
         <v>44105</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9973082853553636</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -610,16 +555,11 @@
         <v>44136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.994958665988031</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -631,16 +571,11 @@
         <v>44166</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7534168110323887</v>
+        <v>0.9844551213131019</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -652,16 +587,11 @@
         <v>44197</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3401909969007468</v>
+        <v>0.6462381435331344</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>пропало обоняние</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -673,16 +603,11 @@
         <v>43831</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.01473988663415088</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -694,16 +619,11 @@
         <v>43862</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000601769413222035</v>
+        <v>0.02261966610578231</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -715,16 +635,11 @@
         <v>43891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00394493282001112</v>
+        <v>0.02322526616161225</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -736,16 +651,11 @@
         <v>43922</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08293508632399828</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -757,16 +667,11 @@
         <v>43952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2166968137893173</v>
+        <v>0.005679148282840829</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -778,16 +683,11 @@
         <v>43983</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2113020037865724</v>
+        <v>0.1105673720369408</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -799,16 +699,11 @@
         <v>44013</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1786164230263019</v>
+        <v>0.02316400828144505</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -820,16 +715,11 @@
         <v>44044</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1612636453853788</v>
+        <v>0.02030349790249919</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -841,16 +731,11 @@
         <v>44075</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2894194156854188</v>
+        <v>0.03698270046447433</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -862,16 +747,11 @@
         <v>44105</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.6228716763722928</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -883,16 +763,11 @@
         <v>44136</v>
       </c>
       <c r="C25" t="n">
-        <v>0.933594217383042</v>
+        <v>0.9422074548513915</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -904,16 +779,11 @@
         <v>44166</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6571638713128426</v>
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -925,16 +795,11 @@
         <v>44197</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3068812860269846</v>
+        <v>0.6219233423540085</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>пропал вкус</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -946,16 +811,11 @@
         <v>43831</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8355086281801136</v>
+        <v>0.3548753402468147</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -967,16 +827,11 @@
         <v>43862</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8962000433402744</v>
+        <v>0.489189634072155</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -988,16 +843,11 @@
         <v>43891</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9475165146068834</v>
+        <v>0.4567788139252495</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -1009,16 +859,11 @@
         <v>43922</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5542135473012328</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -1030,16 +875,11 @@
         <v>43952</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2271919719448969</v>
+        <v>0.8001984822785385</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -1051,16 +891,11 @@
         <v>43983</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.2713935030452239</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -1072,16 +907,11 @@
         <v>44013</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0169427904205468</v>
+        <v>0.1048401525832516</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -1093,16 +923,11 @@
         <v>44044</v>
       </c>
       <c r="C35" t="n">
-        <v>0.306929725707839</v>
+        <v>0</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -1114,16 +939,11 @@
         <v>44075</v>
       </c>
       <c r="C36" t="n">
-        <v>0.664140014972854</v>
+        <v>0.2156824856088421</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -1135,16 +955,11 @@
         <v>44105</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0.6525963724500873</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -1156,16 +971,11 @@
         <v>44136</v>
       </c>
       <c r="C38" t="n">
-        <v>0.994958665988031</v>
+        <v>0.8982659042275295</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -1177,16 +987,11 @@
         <v>44166</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9844551213131019</v>
+        <v>0.8903576259420155</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -1198,16 +1003,11 @@
         <v>44197</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6462381435331344</v>
+        <v>0.347813951491122</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>кашель</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -1219,16 +1019,11 @@
         <v>43831</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02654956838625677</v>
+        <v>0.6714257586964735</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -1240,16 +1035,11 @@
         <v>43862</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04387694906853112</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -1261,16 +1051,11 @@
         <v>43891</v>
       </c>
       <c r="C43" t="n">
-        <v>0.356673868955575</v>
+        <v>0.6515769924595974</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -1282,16 +1067,11 @@
         <v>43922</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0.1074972993970871</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -1303,16 +1083,11 @@
         <v>43952</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9048250681541312</v>
+        <v>0.08186418761075132</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -1324,16 +1099,11 @@
         <v>43983</v>
       </c>
       <c r="C46" t="n">
-        <v>0.531336937968396</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -1345,16 +1115,11 @@
         <v>44013</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0888045713009149</v>
+        <v>0.0719398044923133</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -1366,16 +1131,11 @@
         <v>44044</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.1524736458405394</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -1387,16 +1147,11 @@
         <v>44075</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2185086026046921</v>
+        <v>0.2461992007279655</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -1408,16 +1163,11 @@
         <v>44105</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6769930501984411</v>
+        <v>0.8588023690806242</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -1429,16 +1179,11 @@
         <v>44136</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9749339402338009</v>
+        <v>0.9219033530047201</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -1450,16 +1195,11 @@
         <v>44166</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8185930753308224</v>
+        <v>0.7622458373465445</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -1471,16 +1211,11 @@
         <v>44197</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4344446267317781</v>
+        <v>0.3558516610703434</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>одышка</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -1492,16 +1227,11 @@
         <v>43831</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1308107677286947</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -1513,16 +1243,11 @@
         <v>43862</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1086337099248811</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1259,11 @@
         <v>43891</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2609639946599718</v>
+        <v>0.0006164848036495901</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -1555,16 +1275,11 @@
         <v>43922</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7220594974794272</v>
+        <v>0.05930583811109057</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1291,11 @@
         <v>43952</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7316835036961762</v>
+        <v>0.2208865051476481</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -1597,16 +1307,11 @@
         <v>43983</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3688206109151773</v>
+        <v>0.284261142962826</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -1618,16 +1323,11 @@
         <v>44013</v>
       </c>
       <c r="C60" t="n">
-        <v>0.003765915476119375</v>
+        <v>0.2858023549719499</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -1639,16 +1339,11 @@
         <v>44044</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.2028851488810801</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -1660,16 +1355,11 @@
         <v>44075</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1361507960228745</v>
+        <v>0.2128105542198385</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -1681,16 +1371,11 @@
         <v>44105</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7712156534560743</v>
+        <v>0.4383823438752235</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -1702,16 +1387,11 @@
         <v>44136</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0.7067998273842551</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -1723,16 +1403,11 @@
         <v>44166</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7921971825373104</v>
+        <v>1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -1744,16 +1419,11 @@
         <v>44197</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6230298682925857</v>
+        <v>0.9977806547068615</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>боль в мышцах</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -1765,16 +1435,11 @@
         <v>43831</v>
       </c>
       <c r="C67" t="n">
-        <v>0.05139581112615596</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -1786,16 +1451,11 @@
         <v>43862</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05669672438132004</v>
+        <v>0</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -1807,16 +1467,11 @@
         <v>43891</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2537236034686411</v>
+        <v>0.01503611256537134</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -1828,16 +1483,11 @@
         <v>43922</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0.06812130219152326</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -1849,16 +1499,11 @@
         <v>43952</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9055630779868054</v>
+        <v>0.1399917810841088</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -1870,16 +1515,11 @@
         <v>43983</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5851603238166575</v>
+        <v>0.1817421849931603</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -1891,16 +1531,11 @@
         <v>44013</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07732419117858894</v>
+        <v>0.2665602711116365</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -1912,16 +1547,11 @@
         <v>44044</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>0.3730571552418107</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -1933,16 +1563,11 @@
         <v>44075</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2222494310161044</v>
+        <v>0.4459184075568991</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -1954,16 +1579,11 @@
         <v>44105</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5402177983924404</v>
+        <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -1975,16 +1595,11 @@
         <v>44136</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6930800034571173</v>
+        <v>0.8448032245171387</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -1996,16 +1611,11 @@
         <v>44166</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7201895652674944</v>
+        <v>0.7116539723821909</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -2017,16 +1627,11 @@
         <v>44197</v>
       </c>
       <c r="C79" t="n">
-        <v>0.296894356255942</v>
+        <v>0.4396500768412342</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>утомляемость</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -2038,16 +1643,11 @@
         <v>43831</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3548753402468147</v>
+        <v>0.05139581112615596</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -2059,16 +1659,11 @@
         <v>43862</v>
       </c>
       <c r="C81" t="n">
-        <v>0.489189634072155</v>
+        <v>0.05669672438132004</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -2080,16 +1675,11 @@
         <v>43891</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4567788139252495</v>
+        <v>0.2537236034686411</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -2108,11 +1698,6 @@
           <t>высокая температура</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2122,16 +1707,11 @@
         <v>43952</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8001984822785385</v>
+        <v>0.9055630779868054</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -2143,16 +1723,11 @@
         <v>43983</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2713935030452239</v>
+        <v>0.5851603238166575</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -2164,16 +1739,11 @@
         <v>44013</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1048401525832516</v>
+        <v>0.07732419117858894</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -2192,11 +1762,6 @@
           <t>высокая температура</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2206,16 +1771,11 @@
         <v>44075</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2156824856088421</v>
+        <v>0.2222494310161044</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -2227,16 +1787,11 @@
         <v>44105</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6525963724500873</v>
+        <v>0.5402177983924404</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -2248,16 +1803,11 @@
         <v>44136</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8982659042275295</v>
+        <v>0.6930800034571173</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -2269,16 +1819,11 @@
         <v>44166</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8903576259420155</v>
+        <v>0.7201895652674944</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -2290,16 +1835,11 @@
         <v>44197</v>
       </c>
       <c r="C92" t="n">
-        <v>0.347813951491122</v>
+        <v>0.296894356255942</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>высокая температура</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -2318,11 +1858,6 @@
           <t>симптомы коронавируса</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2332,16 +1867,11 @@
         <v>43862</v>
       </c>
       <c r="C94" t="n">
-        <v>0.05496223375895459</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -2353,16 +1883,11 @@
         <v>43891</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -2374,16 +1899,11 @@
         <v>43922</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5471931598658801</v>
+        <v>6.965585908209967e-05</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -2395,16 +1915,11 @@
         <v>43952</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3379973372099531</v>
+        <v>0.02503103783132629</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -2416,16 +1931,11 @@
         <v>43983</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1881811252522124</v>
+        <v>0.05309415423446162</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -2437,16 +1947,11 @@
         <v>44013</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1696307450302611</v>
+        <v>0.06067844806745965</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -2458,16 +1963,11 @@
         <v>44044</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1706610686473174</v>
+        <v>0.01062456721175791</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -2479,16 +1979,11 @@
         <v>44075</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1881095448746064</v>
+        <v>1</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -2500,16 +1995,11 @@
         <v>44105</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4683170064999321</v>
+        <v>0.4378977042248327</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -2521,16 +2011,11 @@
         <v>44136</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3411679141174291</v>
+        <v>0.472905919518801</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -2542,16 +2027,11 @@
         <v>44166</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2284999659450931</v>
+        <v>0.57027251830515</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -2563,16 +2043,11 @@
         <v>44197</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07175629180673646</v>
+        <v>0.352249679378178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>симптомы коронавируса</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -2584,16 +2059,11 @@
         <v>43831</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.02654956838625677</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -2605,16 +2075,11 @@
         <v>43862</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>0.04387694906853112</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -2626,16 +2091,11 @@
         <v>43891</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01503611256537134</v>
+        <v>0.356673868955575</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -2647,16 +2107,11 @@
         <v>43922</v>
       </c>
       <c r="C109" t="n">
-        <v>0.06812130219152326</v>
+        <v>1</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2123,11 @@
         <v>43952</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1399917810841088</v>
+        <v>0.9048250681541312</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -2689,16 +2139,11 @@
         <v>43983</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1817421849931603</v>
+        <v>0.531336937968396</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -2710,16 +2155,11 @@
         <v>44013</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2665602711116365</v>
+        <v>0.0888045713009149</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -2731,16 +2171,11 @@
         <v>44044</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3730571552418107</v>
+        <v>0</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -2752,16 +2187,11 @@
         <v>44075</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4459184075568991</v>
+        <v>0.2185086026046921</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -2773,16 +2203,11 @@
         <v>44105</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0.6769930501984411</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -2794,16 +2219,11 @@
         <v>44136</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8448032245171387</v>
+        <v>0.9749339402338009</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -2815,16 +2235,11 @@
         <v>44166</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7116539723821909</v>
+        <v>0.8185930753308224</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -2836,16 +2251,11 @@
         <v>44197</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4396500768412342</v>
+        <v>0.4344446267317781</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>симптомы ковид</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -2857,16 +2267,11 @@
         <v>43831</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.1308107677286947</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -2878,16 +2283,11 @@
         <v>43862</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.1086337099248811</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -2899,16 +2299,11 @@
         <v>43891</v>
       </c>
       <c r="C121" t="n">
-        <v>0.428453634403146</v>
+        <v>0.2609639946599718</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -2920,16 +2315,11 @@
         <v>43922</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6471520994545223</v>
+        <v>0.7220594974794272</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -2941,16 +2331,11 @@
         <v>43952</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0.7316835036961762</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -2962,16 +2347,11 @@
         <v>43983</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6882849169098059</v>
+        <v>0.3688206109151773</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -2983,16 +2363,11 @@
         <v>44013</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4414245845490296</v>
+        <v>0.003765915476119375</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -3004,16 +2379,11 @@
         <v>44044</v>
       </c>
       <c r="C126" t="n">
-        <v>0.405365977419764</v>
+        <v>0</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -3025,16 +2395,11 @@
         <v>44075</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4518901433464417</v>
+        <v>0.1361507960228745</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -3046,16 +2411,11 @@
         <v>44105</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8407015095775719</v>
+        <v>0.7712156534560743</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -3067,16 +2427,11 @@
         <v>44136</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9099644805277178</v>
+        <v>1</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -3088,16 +2443,11 @@
         <v>44166</v>
       </c>
       <c r="C130" t="n">
-        <v>0.543796777876443</v>
+        <v>0.7921971825373104</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -3109,16 +2459,11 @@
         <v>44197</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2993784092350628</v>
+        <v>0.6230298682925857</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>симптомы covid</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -3137,11 +2482,6 @@
           <t>коронавирус</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3151,16 +2491,11 @@
         <v>43862</v>
       </c>
       <c r="C133" t="n">
-        <v>0.04004858225544163</v>
+        <v>0</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -3172,16 +2507,11 @@
         <v>43891</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8913143244622818</v>
+        <v>0.428453634403146</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -3193,16 +2523,11 @@
         <v>43922</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0.6471520994545223</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -3214,16 +2539,11 @@
         <v>43952</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6860191595577027</v>
+        <v>1</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -3235,16 +2555,11 @@
         <v>43983</v>
       </c>
       <c r="C137" t="n">
-        <v>0.276112897390379</v>
+        <v>0.6882849169098059</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -3256,16 +2571,11 @@
         <v>44013</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1664552881229785</v>
+        <v>0.4414245845490296</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -3277,16 +2587,11 @@
         <v>44044</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1157303247785812</v>
+        <v>0.405365977419764</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -3298,16 +2603,11 @@
         <v>44075</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1247918480623044</v>
+        <v>0.4518901433464417</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -3319,16 +2619,11 @@
         <v>44105</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2762889983752156</v>
+        <v>0.8407015095775719</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -3340,16 +2635,11 @@
         <v>44136</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2428116849008323</v>
+        <v>0.9099644805277178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -3361,16 +2651,11 @@
         <v>44166</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1832401181579944</v>
+        <v>0.543796777876443</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -3382,16 +2667,11 @@
         <v>44197</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1374506196445096</v>
+        <v>0.2993784092350628</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>коронавирус</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -3403,16 +2683,11 @@
         <v>43831</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6714257586964735</v>
+        <v>0.01357182673705609</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -3424,16 +2699,11 @@
         <v>43862</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -3445,16 +2715,11 @@
         <v>43891</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6515769924595974</v>
+        <v>0.1752860937141358</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -3466,16 +2731,11 @@
         <v>43922</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1074972993970871</v>
+        <v>0.4186346197986687</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -3487,16 +2747,11 @@
         <v>43952</v>
       </c>
       <c r="C149" t="n">
-        <v>0.08186418761075132</v>
+        <v>0.3537265960586287</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -3508,16 +2763,11 @@
         <v>43983</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>0.1960028855297242</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -3529,16 +2779,11 @@
         <v>44013</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0719398044923133</v>
+        <v>0.1192789454700462</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -3550,16 +2795,11 @@
         <v>44044</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1524736458405394</v>
+        <v>0.07165786798701512</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -3571,16 +2811,11 @@
         <v>44075</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2461992007279655</v>
+        <v>0.1857920451191921</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -3592,16 +2827,11 @@
         <v>44105</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8588023690806242</v>
+        <v>0.8799390103944651</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -3613,16 +2843,11 @@
         <v>44136</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9219033530047201</v>
+        <v>1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -3634,16 +2859,11 @@
         <v>44166</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7622458373465445</v>
+        <v>0.7010640390858116</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -3655,16 +2875,11 @@
         <v>44197</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3558516610703434</v>
+        <v>0.341828704462734</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>не могу сбить температуру</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -3676,16 +2891,11 @@
         <v>43831</v>
       </c>
       <c r="C158" t="n">
-        <v>0.001082733147395612</v>
+        <v>0</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -3697,16 +2907,11 @@
         <v>43862</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.000601769413222035</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -3718,16 +2923,11 @@
         <v>43891</v>
       </c>
       <c r="C160" t="n">
-        <v>0.007448929944424268</v>
+        <v>0.00394493282001112</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -3739,16 +2939,11 @@
         <v>43922</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1437910736190013</v>
+        <v>0.08293508632399828</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -3760,16 +2955,11 @@
         <v>43952</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2662872532156489</v>
+        <v>0.2166968137893173</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -3781,16 +2971,11 @@
         <v>43983</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2266681285848404</v>
+        <v>0.2113020037865724</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -3802,16 +2987,11 @@
         <v>44013</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1878713329267374</v>
+        <v>0.1786164230263019</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -3823,16 +3003,11 @@
         <v>44044</v>
       </c>
       <c r="C165" t="n">
-        <v>0.17209289576295</v>
+        <v>0.1612636453853788</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -3844,16 +3019,11 @@
         <v>44075</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3333755919055418</v>
+        <v>0.2894194156854188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -3872,11 +3042,6 @@
           <t>не чувствую запахи</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3886,16 +3051,11 @@
         <v>44136</v>
       </c>
       <c r="C168" t="n">
-        <v>0.924859690119032</v>
+        <v>0.933594217383042</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -3907,16 +3067,11 @@
         <v>44166</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7117291522473566</v>
+        <v>0.6571638713128426</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -3928,16 +3083,11 @@
         <v>44197</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3703769693065711</v>
+        <v>0.3068812860269846</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>не чувствую запахи</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -3956,11 +3106,6 @@
           <t>кислород в крови</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3970,16 +3115,11 @@
         <v>43862</v>
       </c>
       <c r="C172" t="n">
-        <v>0.010105738204044</v>
+        <v>0.002869200631086748</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -3991,16 +3131,11 @@
         <v>43891</v>
       </c>
       <c r="C173" t="n">
-        <v>0.05691111275516882</v>
+        <v>0.009164039046775069</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -4012,16 +3147,11 @@
         <v>43922</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2875817365422811</v>
+        <v>0.2816113931461292</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -4033,16 +3163,11 @@
         <v>43952</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3219936033508426</v>
+        <v>0.455593033009928</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -4054,16 +3179,11 @@
         <v>43983</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1608566615637645</v>
+        <v>0.30392917906056</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -4075,16 +3195,11 @@
         <v>44013</v>
       </c>
       <c r="C177" t="n">
-        <v>0.09398777579858522</v>
+        <v>0.2354866458899598</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -4096,16 +3211,11 @@
         <v>44044</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0670026235367096</v>
+        <v>0.2144786626578766</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -4117,16 +3227,11 @@
         <v>44075</v>
       </c>
       <c r="C179" t="n">
-        <v>0.117660784101709</v>
+        <v>0.3075387693197804</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -4138,16 +3243,11 @@
         <v>44105</v>
       </c>
       <c r="C180" t="n">
-        <v>0.8196659970293142</v>
+        <v>1</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -4159,16 +3259,11 @@
         <v>44136</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0.8703738051676143</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -4180,16 +3275,11 @@
         <v>44166</v>
       </c>
       <c r="C182" t="n">
-        <v>0.8828684760154112</v>
+        <v>0.6627838192044857</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -4201,16 +3291,11 @@
         <v>44197</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5056923917435422</v>
+        <v>0.4191849455126663</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>кислород в крови</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -4222,16 +3307,11 @@
         <v>43831</v>
       </c>
       <c r="C184" t="n">
-        <v>0.01357182673705609</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -4243,16 +3323,11 @@
         <v>43862</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.0002226756651910311</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -4264,16 +3339,11 @@
         <v>43891</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1752860937141358</v>
+        <v>0.002735129396969089</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -4285,16 +3355,11 @@
         <v>43922</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4186346197986687</v>
+        <v>0.08771740637468613</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -4306,16 +3371,11 @@
         <v>43952</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3537265960586287</v>
+        <v>0.2196702439488939</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -4327,16 +3387,11 @@
         <v>43983</v>
       </c>
       <c r="C189" t="n">
-        <v>0.1960028855297242</v>
+        <v>0.2185092494429608</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -4348,16 +3403,11 @@
         <v>44013</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1192789454700462</v>
+        <v>0.1817915727764295</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -4369,16 +3419,11 @@
         <v>44044</v>
       </c>
       <c r="C191" t="n">
-        <v>0.07165786798701512</v>
+        <v>0.1689716165553055</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -4390,16 +3435,11 @@
         <v>44075</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1857920451191921</v>
+        <v>0.2912723743528051</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -4411,16 +3451,11 @@
         <v>44105</v>
       </c>
       <c r="C193" t="n">
-        <v>0.8799390103944651</v>
+        <v>0.9973082853553639</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -4439,11 +3474,6 @@
           <t>пневмония взрослый</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4453,16 +3483,11 @@
         <v>44166</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7010640390858116</v>
+        <v>0.7534168110323889</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -4474,16 +3499,11 @@
         <v>44197</v>
       </c>
       <c r="C196" t="n">
-        <v>0.341828704462734</v>
+        <v>0.3401909969007469</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -4502,11 +3522,6 @@
           <t>КТ легких</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4516,16 +3531,11 @@
         <v>43862</v>
       </c>
       <c r="C198" t="n">
-        <v>0.002869200631086748</v>
+        <v>0.01259911325325042</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -4537,16 +3547,11 @@
         <v>43891</v>
       </c>
       <c r="C199" t="n">
-        <v>0.009164039046775069</v>
+        <v>0.06976134962104194</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -4558,16 +3563,11 @@
         <v>43922</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2816113931461292</v>
+        <v>0.1167220139162725</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -4579,16 +3579,11 @@
         <v>43952</v>
       </c>
       <c r="C201" t="n">
-        <v>0.455593033009928</v>
+        <v>0.1377663343083792</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -4600,16 +3595,11 @@
         <v>43983</v>
       </c>
       <c r="C202" t="n">
-        <v>0.30392917906056</v>
+        <v>0.06491314122777006</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -4621,16 +3611,11 @@
         <v>44013</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2354866458899598</v>
+        <v>0.0537919392238195</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -4642,16 +3627,11 @@
         <v>44044</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2144786626578766</v>
+        <v>0.0825537317144549</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -4663,16 +3643,11 @@
         <v>44075</v>
       </c>
       <c r="C205" t="n">
-        <v>0.3075387693197804</v>
+        <v>0.1799200086833583</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -4691,11 +3666,6 @@
           <t>КТ легких</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4705,16 +3675,11 @@
         <v>44136</v>
       </c>
       <c r="C207" t="n">
-        <v>0.8703738051676143</v>
+        <v>0.847059771823693</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -4726,16 +3691,11 @@
         <v>44166</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6627838192044857</v>
+        <v>0.3812919426586923</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -4747,16 +3707,11 @@
         <v>44197</v>
       </c>
       <c r="C209" t="n">
-        <v>0.4191849455126663</v>
+        <v>0.1565931008519859</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
           <t>КТ легких</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -4768,16 +3723,11 @@
         <v>43831</v>
       </c>
       <c r="C210" t="n">
-        <v>0.01473988663415088</v>
+        <v>0.0009596909757664006</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -4789,16 +3739,11 @@
         <v>43862</v>
       </c>
       <c r="C211" t="n">
-        <v>0.02261966610578231</v>
+        <v>0.1022849486239465</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -4810,16 +3755,11 @@
         <v>43891</v>
       </c>
       <c r="C212" t="n">
-        <v>0.02322526616161225</v>
+        <v>1</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -4831,16 +3771,11 @@
         <v>43922</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>0.8504134777686502</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -4852,16 +3787,11 @@
         <v>43952</v>
       </c>
       <c r="C214" t="n">
-        <v>0.005679148282840829</v>
+        <v>0.2191709290292096</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -4873,16 +3803,11 @@
         <v>43983</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1105673720369408</v>
+        <v>0.04787757516299454</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -4894,16 +3819,11 @@
         <v>44013</v>
       </c>
       <c r="C216" t="n">
-        <v>0.02316400828144505</v>
+        <v>0.01897653351232607</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -4915,16 +3835,11 @@
         <v>44044</v>
       </c>
       <c r="C217" t="n">
-        <v>0.02030349790249919</v>
+        <v>0.02842253166372567</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -4936,16 +3851,11 @@
         <v>44075</v>
       </c>
       <c r="C218" t="n">
-        <v>0.03698270046447433</v>
+        <v>0.02172966870094622</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -4957,16 +3867,11 @@
         <v>44105</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6228716763722928</v>
+        <v>0.08115665599645931</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -4978,16 +3883,11 @@
         <v>44136</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9422074548513915</v>
+        <v>0.04860021472184119</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -4999,16 +3899,11 @@
         <v>44166</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0.0194666623574503</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -5020,16 +3915,11 @@
         <v>44197</v>
       </c>
       <c r="C222" t="n">
-        <v>0.6219233423540085</v>
+        <v>0</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
           <t>дексаметазон</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -5041,16 +3931,11 @@
         <v>43831</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>0.00529034099997075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -5062,16 +3947,11 @@
         <v>43862</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>0.0032471273757948</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -5083,16 +3963,11 @@
         <v>43891</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>0.01044825148726344</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -5104,16 +3979,11 @@
         <v>43922</v>
       </c>
       <c r="C226" t="n">
-        <v>6.965585908209967e-05</v>
+        <v>0</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -5125,16 +3995,11 @@
         <v>43952</v>
       </c>
       <c r="C227" t="n">
-        <v>0.02503103783132629</v>
+        <v>0.08875080189255241</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -5146,16 +4011,11 @@
         <v>43983</v>
       </c>
       <c r="C228" t="n">
-        <v>0.05309415423446162</v>
+        <v>0.08611079102293112</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -5167,16 +4027,11 @@
         <v>44013</v>
       </c>
       <c r="C229" t="n">
-        <v>0.06067844806745965</v>
+        <v>0.08930976184866116</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -5188,16 +4043,11 @@
         <v>44044</v>
       </c>
       <c r="C230" t="n">
-        <v>0.01062456721175791</v>
+        <v>0.06642680118396319</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -5209,16 +4059,11 @@
         <v>44075</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0.1108924956616108</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -5230,16 +4075,11 @@
         <v>44105</v>
       </c>
       <c r="C232" t="n">
-        <v>0.4378977042248327</v>
+        <v>0.9885525000988928</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -5251,16 +4091,11 @@
         <v>44136</v>
       </c>
       <c r="C233" t="n">
-        <v>0.472905919518801</v>
+        <v>1</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -5272,16 +4107,11 @@
         <v>44166</v>
       </c>
       <c r="C234" t="n">
-        <v>0.57027251830515</v>
+        <v>0.4866219384043327</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -5293,16 +4123,11 @@
         <v>44197</v>
       </c>
       <c r="C235" t="n">
-        <v>0.352249679378178</v>
+        <v>0.3124138986682994</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>арепливир</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -5314,16 +4139,11 @@
         <v>43831</v>
       </c>
       <c r="C236" t="n">
-        <v>0.02186910318800278</v>
+        <v>0.01012956734956386</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -5335,16 +4155,11 @@
         <v>43862</v>
       </c>
       <c r="C237" t="n">
-        <v>0.03348098122951634</v>
+        <v>0.05863173219575145</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -5356,16 +4171,11 @@
         <v>43891</v>
       </c>
       <c r="C238" t="n">
-        <v>0.04600390637931606</v>
+        <v>1</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -5377,16 +4187,11 @@
         <v>43922</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>0.8744902065601932</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -5398,16 +4203,11 @@
         <v>43952</v>
       </c>
       <c r="C240" t="n">
-        <v>0.01333465752971166</v>
+        <v>0.3046045546090594</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -5419,16 +4219,11 @@
         <v>43983</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0295189856655742</v>
+        <v>0.0833707193406633</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -5440,16 +4235,11 @@
         <v>44013</v>
       </c>
       <c r="C242" t="n">
-        <v>0.09333598172609001</v>
+        <v>0.02620593552727207</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -5461,16 +4251,11 @@
         <v>44044</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1291700599198861</v>
+        <v>0.01529877002731064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -5482,16 +4267,11 @@
         <v>44075</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1498036878869136</v>
+        <v>0.01743150506131844</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -5503,16 +4283,11 @@
         <v>44105</v>
       </c>
       <c r="C245" t="n">
-        <v>0.6382269010494256</v>
+        <v>0.09314175064464873</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -5524,16 +4299,11 @@
         <v>44136</v>
       </c>
       <c r="C246" t="n">
-        <v>0.9784897540305227</v>
+        <v>0.07204264361193648</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -5545,16 +4315,11 @@
         <v>44166</v>
       </c>
       <c r="C247" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.02792884907619214</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -5566,16 +4331,11 @@
         <v>44197</v>
       </c>
       <c r="C248" t="n">
-        <v>0.8407812758632105</v>
+        <v>0</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>ксарелто</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -5587,16 +4347,11 @@
         <v>43831</v>
       </c>
       <c r="C249" t="n">
-        <v>0.01012956734956386</v>
+        <v>0</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -5608,16 +4363,11 @@
         <v>43862</v>
       </c>
       <c r="C250" t="n">
-        <v>0.05863173219575145</v>
+        <v>0.0004615957081019473</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -5629,16 +4379,11 @@
         <v>43891</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0.03965366191411494</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -5650,16 +4395,11 @@
         <v>43922</v>
       </c>
       <c r="C252" t="n">
-        <v>0.8744902065601932</v>
+        <v>0.1694303532149199</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -5671,16 +4411,11 @@
         <v>43952</v>
       </c>
       <c r="C253" t="n">
-        <v>0.3046045546090594</v>
+        <v>0.2530145025835229</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -5692,16 +4427,11 @@
         <v>43983</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0833707193406633</v>
+        <v>0.1484041976948476</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -5713,16 +4443,11 @@
         <v>44013</v>
       </c>
       <c r="C255" t="n">
-        <v>0.02620593552727207</v>
+        <v>0.1243011299674528</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -5734,16 +4459,11 @@
         <v>44044</v>
       </c>
       <c r="C256" t="n">
-        <v>0.01529877002731064</v>
+        <v>0.09594360996104698</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -5755,16 +4475,11 @@
         <v>44075</v>
       </c>
       <c r="C257" t="n">
-        <v>0.01743150506131844</v>
+        <v>0.1368489969713669</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -5776,16 +4491,11 @@
         <v>44105</v>
       </c>
       <c r="C258" t="n">
-        <v>0.09314175064464873</v>
+        <v>0.6972721106699262</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -5797,16 +4507,11 @@
         <v>44136</v>
       </c>
       <c r="C259" t="n">
-        <v>0.07204264361193648</v>
+        <v>1</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -5818,16 +4523,11 @@
         <v>44166</v>
       </c>
       <c r="C260" t="n">
-        <v>0.02792884907619214</v>
+        <v>0.8322488189273081</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -5839,16 +4539,11 @@
         <v>44197</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>0.6222027535597037</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
           <t>респиратор</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -5860,16 +4555,11 @@
         <v>43831</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0009596909757664009</v>
+        <v>0</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -5881,16 +4571,11 @@
         <v>43862</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1022849486239466</v>
+        <v>0.04004858225544163</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -5902,16 +4587,11 @@
         <v>43891</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0.8913143244622815</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -5923,16 +4603,11 @@
         <v>43922</v>
       </c>
       <c r="C265" t="n">
-        <v>0.8504134777686504</v>
+        <v>1</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -5944,16 +4619,11 @@
         <v>43952</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2191709290292097</v>
+        <v>0.6860191595577025</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -5965,16 +4635,11 @@
         <v>43983</v>
       </c>
       <c r="C267" t="n">
-        <v>0.04787757516299455</v>
+        <v>0.276112897390379</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -5986,16 +4651,11 @@
         <v>44013</v>
       </c>
       <c r="C268" t="n">
-        <v>0.01897653351232608</v>
+        <v>0.1664552881229785</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -6007,16 +4667,11 @@
         <v>44044</v>
       </c>
       <c r="C269" t="n">
-        <v>0.02842253166372568</v>
+        <v>0.1157303247785811</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -6028,16 +4683,11 @@
         <v>44075</v>
       </c>
       <c r="C270" t="n">
-        <v>0.02172966870094622</v>
+        <v>0.1247918480623043</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -6049,16 +4699,11 @@
         <v>44105</v>
       </c>
       <c r="C271" t="n">
-        <v>0.08115665599645933</v>
+        <v>0.2762889983752155</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -6070,16 +4715,11 @@
         <v>44136</v>
       </c>
       <c r="C272" t="n">
-        <v>0.0486002147218412</v>
+        <v>0.2428116849008322</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -6091,16 +4731,11 @@
         <v>44166</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0194666623574503</v>
+        <v>0.1832401181579944</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -6112,16 +4747,11 @@
         <v>44197</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>0.1374506196445095</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>медицинские маски</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -6140,11 +4770,6 @@
           <t>азитромицин</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -6154,16 +4779,11 @@
         <v>43862</v>
       </c>
       <c r="C276" t="n">
-        <v>0.01259911325325042</v>
+        <v>2.347698902920303e-06</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -6175,16 +4795,11 @@
         <v>43891</v>
       </c>
       <c r="C277" t="n">
-        <v>0.06976134962104194</v>
+        <v>0.002152839893977917</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -6196,16 +4811,11 @@
         <v>43922</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1167220139162725</v>
+        <v>0.1145242740328067</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -6217,16 +4827,11 @@
         <v>43952</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1377663343083792</v>
+        <v>0.3488398845871219</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -6238,16 +4843,11 @@
         <v>43983</v>
       </c>
       <c r="C280" t="n">
-        <v>0.06491314122777006</v>
+        <v>0.2871012726875752</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -6259,16 +4859,11 @@
         <v>44013</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0537919392238195</v>
+        <v>0.22695557449366</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -6280,16 +4875,11 @@
         <v>44044</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0825537317144549</v>
+        <v>0.182917438472681</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -6301,16 +4891,11 @@
         <v>44075</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1799200086833583</v>
+        <v>0.2083336267956962</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -6322,16 +4907,11 @@
         <v>44105</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0.507303691286985</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -6343,16 +4923,11 @@
         <v>44136</v>
       </c>
       <c r="C285" t="n">
-        <v>0.847059771823693</v>
+        <v>0.816758579078716</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -6364,16 +4939,11 @@
         <v>44166</v>
       </c>
       <c r="C286" t="n">
-        <v>0.3812919426586923</v>
+        <v>1</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -6385,16 +4955,11 @@
         <v>44197</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1565931008519859</v>
+        <v>0.7681529948421055</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
           <t>азитромицин</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -6413,11 +4978,6 @@
           <t>левофлоксацин</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6427,16 +4987,11 @@
         <v>43862</v>
       </c>
       <c r="C289" t="n">
-        <v>0.006956038036762299</v>
+        <v>0.05496223375895459</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -6448,16 +5003,11 @@
         <v>43891</v>
       </c>
       <c r="C290" t="n">
-        <v>0.02663136659848402</v>
+        <v>1</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -6469,16 +5019,11 @@
         <v>43922</v>
       </c>
       <c r="C291" t="n">
-        <v>0.05131019817561548</v>
+        <v>0.5471931598658801</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -6490,16 +5035,11 @@
         <v>43952</v>
       </c>
       <c r="C292" t="n">
-        <v>0.1039117592178594</v>
+        <v>0.3379973372099531</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -6511,16 +5051,11 @@
         <v>43983</v>
       </c>
       <c r="C293" t="n">
-        <v>0.08299365232484042</v>
+        <v>0.1881811252522124</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -6532,16 +5067,11 @@
         <v>44013</v>
       </c>
       <c r="C294" t="n">
-        <v>0.06803243193764281</v>
+        <v>0.1696307450302611</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -6553,16 +5083,11 @@
         <v>44044</v>
       </c>
       <c r="C295" t="n">
-        <v>0.06225720934653799</v>
+        <v>0.1706610686473174</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -6574,16 +5099,11 @@
         <v>44075</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1230456166539338</v>
+        <v>0.1881095448746064</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -6595,16 +5115,11 @@
         <v>44105</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0.4683170064999321</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -6616,16 +5131,11 @@
         <v>44136</v>
       </c>
       <c r="C298" t="n">
-        <v>0.9474505441115895</v>
+        <v>0.3411679141174291</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -6637,16 +5147,11 @@
         <v>44166</v>
       </c>
       <c r="C299" t="n">
-        <v>0.4617143299734898</v>
+        <v>0.2284999659450931</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -6658,16 +5163,11 @@
         <v>44197</v>
       </c>
       <c r="C300" t="n">
-        <v>0.2294189923285723</v>
+        <v>0.07175629180673646</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
           <t>левофлоксацин</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -6679,16 +5179,11 @@
         <v>43831</v>
       </c>
       <c r="C301" t="n">
-        <v>0.02250662659199831</v>
+        <v>0.02250662659199832</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
           <t>цефтриаксон</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -6707,11 +5202,6 @@
           <t>цефтриаксон</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -6721,16 +5211,11 @@
         <v>43891</v>
       </c>
       <c r="C303" t="n">
-        <v>0.02516946144378587</v>
+        <v>0.02516946144378588</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
           <t>цефтриаксон</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -6749,11 +5234,6 @@
           <t>цефтриаксон</t>
         </is>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -6770,11 +5250,6 @@
           <t>цефтриаксон</t>
         </is>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -6791,11 +5266,6 @@
           <t>цефтриаксон</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -6812,11 +5282,6 @@
           <t>цефтриаксон</t>
         </is>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -6826,16 +5291,11 @@
         <v>44044</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0006485297890672093</v>
+        <v>0.0006485297890672094</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
           <t>цефтриаксон</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -6847,16 +5307,11 @@
         <v>44075</v>
       </c>
       <c r="C309" t="n">
-        <v>0.03602084891126281</v>
+        <v>0.03602084891126282</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
           <t>цефтриаксон</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -6868,16 +5323,11 @@
         <v>44105</v>
       </c>
       <c r="C310" t="n">
-        <v>0.6289584204985832</v>
+        <v>0.6289584204985833</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>цефтриаксон</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -6889,16 +5339,11 @@
         <v>44136</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
           <t>цефтриаксон</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -6910,16 +5355,11 @@
         <v>44166</v>
       </c>
       <c r="C312" t="n">
-        <v>0.538472860756385</v>
+        <v>0.5384728607563851</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>цефтриаксон</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -6931,16 +5371,11 @@
         <v>44197</v>
       </c>
       <c r="C313" t="n">
-        <v>0.2103513486370099</v>
+        <v>0.21035134863701</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>цефтриаксон</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -6959,11 +5394,6 @@
           <t>сатурация</t>
         </is>
       </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -6973,16 +5403,11 @@
         <v>43862</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0004615957081019473</v>
+        <v>0.006956038036762299</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -6994,16 +5419,11 @@
         <v>43891</v>
       </c>
       <c r="C316" t="n">
-        <v>0.03965366191411494</v>
+        <v>0.02663136659848402</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -7015,16 +5435,11 @@
         <v>43922</v>
       </c>
       <c r="C317" t="n">
-        <v>0.1694303532149199</v>
+        <v>0.05131019817561548</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -7036,16 +5451,11 @@
         <v>43952</v>
       </c>
       <c r="C318" t="n">
-        <v>0.2530145025835229</v>
+        <v>0.1039117592178594</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -7057,16 +5467,11 @@
         <v>43983</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1484041976948476</v>
+        <v>0.08299365232484042</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -7078,16 +5483,11 @@
         <v>44013</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1243011299674528</v>
+        <v>0.06803243193764281</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -7099,16 +5499,11 @@
         <v>44044</v>
       </c>
       <c r="C321" t="n">
-        <v>0.09594360996104698</v>
+        <v>0.06225720934653799</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -7120,16 +5515,11 @@
         <v>44075</v>
       </c>
       <c r="C322" t="n">
-        <v>0.1368489969713669</v>
+        <v>0.1230456166539338</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -7141,16 +5531,11 @@
         <v>44105</v>
       </c>
       <c r="C323" t="n">
-        <v>0.6972721106699262</v>
+        <v>1</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -7162,16 +5547,11 @@
         <v>44136</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0.9474505441115895</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>November</t>
         </is>
       </c>
     </row>
@@ -7183,16 +5563,11 @@
         <v>44166</v>
       </c>
       <c r="C325" t="n">
-        <v>0.8322488189273081</v>
+        <v>0.4617143299734898</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -7204,16 +5579,11 @@
         <v>44197</v>
       </c>
       <c r="C326" t="n">
-        <v>0.6222027535597037</v>
+        <v>0.2294189923285723</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
           <t>сатурация</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -7225,16 +5595,11 @@
         <v>43831</v>
       </c>
       <c r="C327" t="n">
-        <v>0.00529034099997075</v>
+        <v>0</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>January</t>
         </is>
       </c>
     </row>
@@ -7246,16 +5611,11 @@
         <v>43862</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0032471273757948</v>
+        <v>0.010105738204044</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>February</t>
         </is>
       </c>
     </row>
@@ -7267,16 +5627,11 @@
         <v>43891</v>
       </c>
       <c r="C329" t="n">
-        <v>0.01044825148726344</v>
+        <v>0.05691111275516882</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>March</t>
         </is>
       </c>
     </row>
@@ -7288,16 +5643,11 @@
         <v>43922</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>0.2875817365422811</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
@@ -7309,16 +5659,11 @@
         <v>43952</v>
       </c>
       <c r="C331" t="n">
-        <v>0.08875080189255241</v>
+        <v>0.3219936033508426</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>May</t>
         </is>
       </c>
     </row>
@@ -7330,16 +5675,11 @@
         <v>43983</v>
       </c>
       <c r="C332" t="n">
-        <v>0.08611079102293112</v>
+        <v>0.1608566615637645</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>June</t>
         </is>
       </c>
     </row>
@@ -7351,16 +5691,11 @@
         <v>44013</v>
       </c>
       <c r="C333" t="n">
-        <v>0.08930976184866116</v>
+        <v>0.09398777579858522</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>July</t>
         </is>
       </c>
     </row>
@@ -7372,16 +5707,11 @@
         <v>44044</v>
       </c>
       <c r="C334" t="n">
-        <v>0.06642680118396319</v>
+        <v>0.0670026235367096</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>August</t>
         </is>
       </c>
     </row>
@@ -7393,16 +5723,11 @@
         <v>44075</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1108924956616108</v>
+        <v>0.117660784101709</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>September</t>
         </is>
       </c>
     </row>
@@ -7414,16 +5739,11 @@
         <v>44105</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9885525000988928</v>
+        <v>0.8196659970293142</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>October</t>
         </is>
       </c>
     </row>
@@ -7442,11 +5762,6 @@
           <t>курантил</t>
         </is>
       </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -7456,16 +5771,11 @@
         <v>44166</v>
       </c>
       <c r="C338" t="n">
-        <v>0.4866219384043327</v>
+        <v>0.8828684760154112</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>курантил</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>December</t>
         </is>
       </c>
     </row>
@@ -7477,16 +5787,427 @@
         <v>44197</v>
       </c>
       <c r="C339" t="n">
-        <v>0.3124138986682994</v>
+        <v>0.5056923917435422</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>курантил</t>
         </is>
       </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>January</t>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.02186910318800278</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.03348098122951635</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.04600390637931607</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.01333465752971167</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.02951898566557421</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.09333598172609002</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.1291700599198862</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.1498036878869137</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.6382269010494257</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.978489754030523</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8407812758632107</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.001082733147395612</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.007448929944424268</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.1437910736190013</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.2662872532156489</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.2266681285848404</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.1878713329267374</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.17209289576295</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.3333755919055418</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.924859690119032</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7117291522473566</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.3703769693065711</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>

--- a/data/scaled_data.xlsx
+++ b/data/scaled_data.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D365"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,7 +395,7 @@
         <v>43831</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8355086281801136</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -408,14 +408,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8962000433402744</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -424,14 +424,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9475165146068834</v>
+        <v>0.01503611256537134</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -440,14 +440,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5542135473012328</v>
+        <v>0.06812130219152326</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -456,14 +456,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43952</v>
+        <v>43831</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2271919719448969</v>
+        <v>0.1399917810841088</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -472,14 +472,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43983</v>
+        <v>43831</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.1817421849931603</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -488,14 +488,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0169427904205468</v>
+        <v>0.2665602711116365</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -504,14 +504,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44044</v>
+        <v>43831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.306929725707839</v>
+        <v>0.3730571552418107</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -520,14 +520,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44075</v>
+        <v>43831</v>
       </c>
       <c r="C10" t="n">
-        <v>0.664140014972854</v>
+        <v>0.4459184075568991</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -536,14 +536,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44105</v>
+        <v>43831</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -552,14 +552,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44136</v>
+        <v>43831</v>
       </c>
       <c r="C12" t="n">
-        <v>0.994958665988031</v>
+        <v>0.8448032245171387</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -568,14 +568,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44166</v>
+        <v>43831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9844551213131019</v>
+        <v>0.7116539723821909</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6462381435331344</v>
+        <v>0.4396500768412342</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>пропало обоняние</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -603,11 +603,11 @@
         <v>43831</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01473988663415088</v>
+        <v>0.2668304820450464</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -616,14 +616,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02261966610578231</v>
+        <v>0.2355901575667506</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -632,14 +632,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02322526616161225</v>
+        <v>0.009481285434822965</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -648,14 +648,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.10994226088504</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -664,14 +664,14 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43952</v>
+        <v>43831</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005679148282840829</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -680,14 +680,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43983</v>
+        <v>43831</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1105673720369408</v>
+        <v>0.85168941795593</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -696,14 +696,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44013</v>
+        <v>43831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02316400828144505</v>
+        <v>0.2258312295441648</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -712,14 +712,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44044</v>
+        <v>43831</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02030349790249919</v>
+        <v>0.05599897037252229</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -728,14 +728,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44075</v>
+        <v>43831</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03698270046447433</v>
+        <v>0.02734444826082201</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -744,14 +744,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44105</v>
+        <v>43831</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6228716763722928</v>
+        <v>0.03670987412221477</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -760,14 +760,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44136</v>
+        <v>43831</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9422074548513915</v>
+        <v>0.03007409981083773</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -776,14 +776,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44166</v>
+        <v>43831</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.08899418795415298</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -792,14 +792,14 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6219233423540085</v>
+        <v>0.0567154459746147</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>пропал вкус</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -811,11 +811,11 @@
         <v>43831</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3548753402468147</v>
+        <v>0.02783039641452357</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="C29" t="n">
-        <v>0.489189634072155</v>
+        <v>0.008529780412343559</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -840,14 +840,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4567788139252495</v>
+        <v>0.001437055943357777</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -856,14 +856,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -872,10 +872,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43952</v>
+        <v>43862</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8001984822785385</v>
+        <v>0.02654956838625677</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -888,14 +888,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43983</v>
+        <v>43862</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2713935030452239</v>
+        <v>0.04387694906853112</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -904,14 +904,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44013</v>
+        <v>43862</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1048401525832516</v>
+        <v>0.356673868955575</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -920,14 +920,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44044</v>
+        <v>43862</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -936,14 +936,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44075</v>
+        <v>43862</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2156824856088421</v>
+        <v>0.9048250681541312</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -952,14 +952,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44105</v>
+        <v>43862</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6525963724500873</v>
+        <v>0.531336937968396</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -968,14 +968,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44136</v>
+        <v>43862</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8982659042275295</v>
+        <v>0.0888045713009149</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -984,14 +984,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44166</v>
+        <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8903576259420155</v>
+        <v>0</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -1000,14 +1000,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44197</v>
+        <v>43862</v>
       </c>
       <c r="C40" t="n">
-        <v>0.347813951491122</v>
+        <v>0.2185086026046921</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>кашель</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -1016,14 +1016,14 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6714257586964735</v>
+        <v>0.6769930501984411</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -1035,11 +1035,11 @@
         <v>43862</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0.9749339402338009</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -1048,14 +1048,14 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6515769924595974</v>
+        <v>0.8185930753308224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1064,14 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1074972993970871</v>
+        <v>0.4344446267317781</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -1080,14 +1080,14 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43952</v>
+        <v>43862</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08186418761075132</v>
+        <v>0.359197578913932</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -1096,14 +1096,14 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43983</v>
+        <v>43862</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.4595804986683328</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -1112,14 +1112,14 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44013</v>
+        <v>43862</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0719398044923133</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -1128,14 +1128,14 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44044</v>
+        <v>43862</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1524736458405394</v>
+        <v>0.01259911325325042</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -1144,14 +1144,14 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44075</v>
+        <v>43862</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2461992007279655</v>
+        <v>0.06976134962104194</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -1160,14 +1160,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44105</v>
+        <v>43862</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8588023690806242</v>
+        <v>0.1167220139162725</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -1176,14 +1176,14 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44136</v>
+        <v>43862</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9219033530047201</v>
+        <v>0.1377663343083792</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -1192,14 +1192,14 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44166</v>
+        <v>43862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7622458373465445</v>
+        <v>0.06491314122777006</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -1208,14 +1208,14 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44197</v>
+        <v>43862</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3558516610703434</v>
+        <v>0.0537919392238195</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>одышка</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -1224,14 +1224,14 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.0825537317144549</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -1243,11 +1243,11 @@
         <v>43862</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.1799200086833583</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -1256,14 +1256,14 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0006164848036495901</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -1272,14 +1272,14 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05930583811109057</v>
+        <v>0.847059771823693</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -1288,14 +1288,14 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2208865051476481</v>
+        <v>0.3812919426586923</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1304,14 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43983</v>
+        <v>43891</v>
       </c>
       <c r="C59" t="n">
-        <v>0.284261142962826</v>
+        <v>0.1565931008519859</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -1320,14 +1320,14 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44013</v>
+        <v>43891</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2858023549719499</v>
+        <v>0.04825538233110616</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1336,14 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44044</v>
+        <v>43891</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2028851488810801</v>
+        <v>0.05138111653515684</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -1352,10 +1352,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44075</v>
+        <v>43891</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2128105542198385</v>
+        <v>0.01357182673705609</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1368,14 +1368,14 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44105</v>
+        <v>43891</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4383823438752235</v>
+        <v>0</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -1384,14 +1384,14 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44136</v>
+        <v>43891</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7067998273842551</v>
+        <v>0.1752860937141358</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -1400,14 +1400,14 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44166</v>
+        <v>43891</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0.4186346197986687</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -1416,14 +1416,14 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44197</v>
+        <v>43891</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9977806547068615</v>
+        <v>0.3537265960586287</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>боль в мышцах</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -1432,14 +1432,14 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43831</v>
+        <v>43891</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.1960028855297242</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1448,14 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.1192789454700462</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -1467,11 +1467,11 @@
         <v>43891</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01503611256537134</v>
+        <v>0.07165786798701512</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -1480,14 +1480,14 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06812130219152326</v>
+        <v>0.1857920451191921</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -1496,14 +1496,14 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1399917810841088</v>
+        <v>0.8799390103944651</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -1512,14 +1512,14 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43983</v>
+        <v>43891</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1817421849931603</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -1528,14 +1528,14 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44013</v>
+        <v>43891</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2665602711116365</v>
+        <v>0.7010640390858116</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -1544,14 +1544,14 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44044</v>
+        <v>43891</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3730571552418107</v>
+        <v>0.341828704462734</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -1560,14 +1560,14 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44075</v>
+        <v>43891</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4459184075568991</v>
+        <v>0.05907958159818999</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -1576,14 +1576,14 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44105</v>
+        <v>43891</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0.02705348067022983</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -1592,14 +1592,14 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44136</v>
+        <v>43891</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8448032245171387</v>
+        <v>0</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -1608,14 +1608,14 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44166</v>
+        <v>43891</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7116539723821909</v>
+        <v>0.0004615957081019473</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -1624,14 +1624,14 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44197</v>
+        <v>43891</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4396500768412342</v>
+        <v>0.03965366191411494</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>утомляемость</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1640,14 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43831</v>
+        <v>43891</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05139581112615596</v>
+        <v>0.1694303532149199</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -1656,14 +1656,14 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05669672438132004</v>
+        <v>0.2530145025835229</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -1675,11 +1675,11 @@
         <v>43891</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2537236034686411</v>
+        <v>0.1484041976948476</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -1688,14 +1688,14 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0.1243011299674528</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -1704,14 +1704,14 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9055630779868054</v>
+        <v>0.09594360996104698</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -1720,14 +1720,14 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>43983</v>
+        <v>43891</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5851603238166575</v>
+        <v>0.1368489969713669</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -1736,14 +1736,14 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C86" t="n">
-        <v>0.07732419117858894</v>
+        <v>0.6972721106699262</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -1752,14 +1752,14 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44044</v>
+        <v>43922</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -1768,14 +1768,14 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44075</v>
+        <v>43922</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2222494310161044</v>
+        <v>0.8322488189273081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -1784,14 +1784,14 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5402177983924404</v>
+        <v>0.6222027535597037</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -1800,14 +1800,14 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>44136</v>
+        <v>43922</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6930800034571173</v>
+        <v>0.325846533557537</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1816,14 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44166</v>
+        <v>43922</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7201895652674944</v>
+        <v>0.2598206841978833</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>высокая температура</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -1832,10 +1832,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="C92" t="n">
-        <v>0.296894356255942</v>
+        <v>0</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1864,14 +1864,14 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -1880,14 +1880,14 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>6.965585908209967e-05</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -1899,11 +1899,11 @@
         <v>43922</v>
       </c>
       <c r="C96" t="n">
-        <v>6.965585908209967e-05</v>
+        <v>0.02503103783132629</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -1912,14 +1912,14 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02503103783132629</v>
+        <v>0.05309415423446162</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -1928,14 +1928,14 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="C98" t="n">
-        <v>0.05309415423446162</v>
+        <v>0.06067844806745965</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1944,14 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C99" t="n">
-        <v>0.06067844806745965</v>
+        <v>0.01062456721175791</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -1960,14 +1960,14 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44044</v>
+        <v>43922</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01062456721175791</v>
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -1976,14 +1976,14 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44075</v>
+        <v>43922</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0.4378977042248327</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -1992,14 +1992,14 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44105</v>
+        <v>43922</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4378977042248327</v>
+        <v>0.472905919518801</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -2008,14 +2008,14 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44136</v>
+        <v>43922</v>
       </c>
       <c r="C103" t="n">
-        <v>0.472905919518801</v>
+        <v>0.57027251830515</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -2024,14 +2024,14 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44166</v>
+        <v>43922</v>
       </c>
       <c r="C104" t="n">
-        <v>0.57027251830515</v>
+        <v>0.352249679378178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -2040,14 +2040,14 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44197</v>
+        <v>43922</v>
       </c>
       <c r="C105" t="n">
-        <v>0.352249679378178</v>
+        <v>0.1896892938944591</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>симптомы коронавируса</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -2056,14 +2056,14 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02654956838625677</v>
+        <v>0.1935859245995812</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -2072,14 +2072,14 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="C107" t="n">
-        <v>0.04387694906853112</v>
+        <v>0.3548753402468147</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -2088,14 +2088,14 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="C108" t="n">
-        <v>0.356673868955575</v>
+        <v>0.489189634072155</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -2107,11 +2107,11 @@
         <v>43922</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0.4567788139252495</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -2120,14 +2120,14 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9048250681541312</v>
+        <v>1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -2136,14 +2136,14 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="C111" t="n">
-        <v>0.531336937968396</v>
+        <v>0.8001984822785385</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -2152,14 +2152,14 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0888045713009149</v>
+        <v>0.2713935030452239</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -2168,14 +2168,14 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44044</v>
+        <v>43922</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>0.1048401525832516</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -2184,14 +2184,14 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44075</v>
+        <v>43952</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2185086026046921</v>
+        <v>0</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -2200,14 +2200,14 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44105</v>
+        <v>43952</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6769930501984411</v>
+        <v>0.2156824856088421</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -2216,14 +2216,14 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44136</v>
+        <v>43952</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9749339402338009</v>
+        <v>0.6525963724500873</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -2232,14 +2232,14 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44166</v>
+        <v>43952</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8185930753308224</v>
+        <v>0.8982659042275295</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -2248,14 +2248,14 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44197</v>
+        <v>43952</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4344446267317781</v>
+        <v>0.8903576259420155</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>симптомы ковид</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -2264,14 +2264,14 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>43831</v>
+        <v>43952</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1308107677286947</v>
+        <v>0.347813951491122</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -2280,14 +2280,14 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1086337099248811</v>
+        <v>0.3216844274907499</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -2296,14 +2296,14 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>43891</v>
+        <v>43952</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2609639946599718</v>
+        <v>0.4151619467485407</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -2312,14 +2312,14 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7220594974794272</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
         <v>43952</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7316835036961762</v>
+        <v>0.010105738204044</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2344,14 +2344,14 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3688206109151773</v>
+        <v>0.05691111275516882</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -2360,14 +2360,14 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44013</v>
+        <v>43952</v>
       </c>
       <c r="C125" t="n">
-        <v>0.003765915476119375</v>
+        <v>0.2875817365422811</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -2376,14 +2376,14 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44044</v>
+        <v>43952</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>0.3219936033508426</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -2392,14 +2392,14 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44075</v>
+        <v>43952</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1361507960228745</v>
+        <v>0.1608566615637645</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -2408,14 +2408,14 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44105</v>
+        <v>43952</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7712156534560743</v>
+        <v>0.09398777579858522</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -2424,14 +2424,14 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44136</v>
+        <v>43952</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0.0670026235367096</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -2440,14 +2440,14 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44166</v>
+        <v>43952</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7921971825373104</v>
+        <v>0.117660784101709</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -2456,14 +2456,14 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44197</v>
+        <v>43952</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6230298682925857</v>
+        <v>0.8196659970293142</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>симптомы covid</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -2472,14 +2472,14 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>43831</v>
+        <v>43952</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -2488,14 +2488,14 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>0.8828684760154112</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -2504,14 +2504,14 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>43891</v>
+        <v>43952</v>
       </c>
       <c r="C134" t="n">
-        <v>0.428453634403146</v>
+        <v>0.5056923917435422</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -2520,14 +2520,14 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6471520994545223</v>
+        <v>0.2795759658997138</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -2539,11 +2539,11 @@
         <v>43952</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0.2232111861686689</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2552,14 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6882849169098059</v>
+        <v>0.1308107677286947</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -2568,14 +2568,14 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44013</v>
+        <v>43952</v>
       </c>
       <c r="C138" t="n">
-        <v>0.4414245845490296</v>
+        <v>0.1086337099248811</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -2584,14 +2584,14 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44044</v>
+        <v>43952</v>
       </c>
       <c r="C139" t="n">
-        <v>0.405365977419764</v>
+        <v>0.2609639946599718</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -2600,14 +2600,14 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44075</v>
+        <v>43952</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4518901433464417</v>
+        <v>0.7220594974794272</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -2616,14 +2616,14 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44105</v>
+        <v>43952</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8407015095775719</v>
+        <v>0.7316835036961762</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -2632,14 +2632,14 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44136</v>
+        <v>43983</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9099644805277178</v>
+        <v>0.3688206109151773</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -2648,14 +2648,14 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44166</v>
+        <v>43983</v>
       </c>
       <c r="C143" t="n">
-        <v>0.543796777876443</v>
+        <v>0.003765915476119375</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -2664,14 +2664,14 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44197</v>
+        <v>43983</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2993784092350628</v>
+        <v>0</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>коронавирус</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -2680,14 +2680,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>43831</v>
+        <v>43983</v>
       </c>
       <c r="C145" t="n">
-        <v>0.01357182673705609</v>
+        <v>0.1361507960228745</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -2696,14 +2696,14 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.7712156534560743</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -2712,14 +2712,14 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1752860937141358</v>
+        <v>1</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -2728,14 +2728,14 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4186346197986687</v>
+        <v>0.7921971825373104</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -2744,14 +2744,14 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3537265960586287</v>
+        <v>0.6230298682925857</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -2763,11 +2763,11 @@
         <v>43983</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1960028855297242</v>
+        <v>0.4711977205252358</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -2776,14 +2776,14 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1192789454700462</v>
+        <v>0.8302946978301153</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -2792,14 +2792,14 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44044</v>
+        <v>43983</v>
       </c>
       <c r="C152" t="n">
-        <v>0.07165786798701512</v>
+        <v>0.8355086281801136</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -2808,10 +2808,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44075</v>
+        <v>43983</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1857920451191921</v>
+        <v>0.8962000433402744</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2824,14 +2824,14 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44105</v>
+        <v>43983</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8799390103944651</v>
+        <v>0.9475165146068834</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -2840,14 +2840,14 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44136</v>
+        <v>43983</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0.5542135473012328</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -2856,14 +2856,14 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>44166</v>
+        <v>43983</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7010640390858116</v>
+        <v>0.2271919719448969</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -2872,14 +2872,14 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44197</v>
+        <v>43983</v>
       </c>
       <c r="C157" t="n">
-        <v>0.341828704462734</v>
+        <v>0</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>не могу сбить температуру</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -2888,14 +2888,14 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>43831</v>
+        <v>43983</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>0.0169427904205468</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -2904,14 +2904,14 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="C159" t="n">
-        <v>0.000601769413222035</v>
+        <v>0.306929725707839</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -2920,14 +2920,14 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="C160" t="n">
-        <v>0.00394493282001112</v>
+        <v>0.664140014972854</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -2936,14 +2936,14 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="C161" t="n">
-        <v>0.08293508632399828</v>
+        <v>1</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -2952,14 +2952,14 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2166968137893173</v>
+        <v>0.994958665988031</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -2971,11 +2971,11 @@
         <v>43983</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2113020037865724</v>
+        <v>0.9844551213131019</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -2984,14 +2984,14 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1786164230263019</v>
+        <v>0.6462381435331344</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -3000,14 +3000,14 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44044</v>
+        <v>43983</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1612636453853788</v>
+        <v>0.618437320067925</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -3016,14 +3016,14 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44075</v>
+        <v>43983</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2894194156854188</v>
+        <v>0.7400948893131987</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -3032,14 +3032,14 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44105</v>
+        <v>43983</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -3048,14 +3048,14 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44136</v>
+        <v>43983</v>
       </c>
       <c r="C168" t="n">
-        <v>0.933594217383042</v>
+        <v>2.34904176713714e-06</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -3064,14 +3064,14 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>44166</v>
+        <v>43983</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6571638713128426</v>
+        <v>0.002744855304899749</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -3080,14 +3080,14 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3068812860269846</v>
+        <v>0.1223392697533858</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>не чувствую запахи</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -3096,14 +3096,14 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.3515869538918336</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -3112,14 +3112,14 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="C172" t="n">
-        <v>0.002869200631086748</v>
+        <v>0.2831605417360123</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -3128,14 +3128,14 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>43891</v>
+        <v>44013</v>
       </c>
       <c r="C173" t="n">
-        <v>0.009164039046775069</v>
+        <v>0.2249583338716554</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -3144,14 +3144,14 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2816113931461292</v>
+        <v>0.1808069193374293</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -3160,14 +3160,14 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="C175" t="n">
-        <v>0.455593033009928</v>
+        <v>0.2095310020659822</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -3176,14 +3176,14 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="C176" t="n">
-        <v>0.30392917906056</v>
+        <v>0.5114662601258382</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -3195,11 +3195,11 @@
         <v>44013</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2354866458899598</v>
+        <v>0.7865402255784808</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -3208,14 +3208,14 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2144786626578766</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -3224,14 +3224,14 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3075387693197804</v>
+        <v>0.7998498962310799</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -3240,14 +3240,14 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0.458124219677688</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -3256,14 +3256,14 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44136</v>
+        <v>44013</v>
       </c>
       <c r="C181" t="n">
-        <v>0.8703738051676143</v>
+        <v>0.3474632110696244</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -3272,14 +3272,14 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>44166</v>
+        <v>44013</v>
       </c>
       <c r="C182" t="n">
-        <v>0.6627838192044857</v>
+        <v>0</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>кислород в крови</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -3288,10 +3288,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4191849455126663</v>
+        <v>0.006956038036762299</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3304,10 +3304,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.02663136659848402</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3320,14 +3320,14 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0002226756651910311</v>
+        <v>0.05131019817561548</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -3336,14 +3336,14 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>43891</v>
+        <v>44013</v>
       </c>
       <c r="C186" t="n">
-        <v>0.002735129396969089</v>
+        <v>0.1039117592178594</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -3352,14 +3352,14 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="C187" t="n">
-        <v>0.08771740637468613</v>
+        <v>0.08299365232484042</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -3368,14 +3368,14 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2196702439488939</v>
+        <v>0.06803243193764281</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -3384,14 +3384,14 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="C189" t="n">
-        <v>0.2185092494429608</v>
+        <v>0.06225720934653799</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -3403,11 +3403,11 @@
         <v>44013</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1817915727764295</v>
+        <v>0.1230456166539338</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -3416,14 +3416,14 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1689716165553055</v>
+        <v>1</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -3432,14 +3432,14 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2912723743528051</v>
+        <v>0.9474505441115895</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -3448,14 +3448,14 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9973082853553639</v>
+        <v>0.4617143299734898</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -3464,14 +3464,14 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>44136</v>
+        <v>44013</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0.2294189923285723</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -3480,14 +3480,14 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>44166</v>
+        <v>44013</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7534168110323889</v>
+        <v>0.091724082086741</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -3496,14 +3496,14 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>44197</v>
+        <v>44013</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3401909969007469</v>
+        <v>0.08507715435447698</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>пневмония взрослый</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -3512,14 +3512,14 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>43831</v>
+        <v>44013</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>0.001082733147395612</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -3528,14 +3528,14 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>43862</v>
+        <v>44044</v>
       </c>
       <c r="C198" t="n">
-        <v>0.01259911325325042</v>
+        <v>0</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -3544,14 +3544,14 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>43891</v>
+        <v>44044</v>
       </c>
       <c r="C199" t="n">
-        <v>0.06976134962104194</v>
+        <v>0.007448929944424268</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -3560,14 +3560,14 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>43922</v>
+        <v>44044</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1167220139162725</v>
+        <v>0.1437910736190013</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -3576,14 +3576,14 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1377663343083792</v>
+        <v>0.2662872532156489</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -3592,14 +3592,14 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="C202" t="n">
-        <v>0.06491314122777006</v>
+        <v>0.2266681285848404</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -3608,14 +3608,14 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0537919392238195</v>
+        <v>0.1878713329267374</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -3627,11 +3627,11 @@
         <v>44044</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0825537317144549</v>
+        <v>0.17209289576295</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -3640,14 +3640,14 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1799200086833583</v>
+        <v>0.3333755919055418</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -3656,14 +3656,14 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44105</v>
+        <v>44044</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -3672,14 +3672,14 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>44136</v>
+        <v>44044</v>
       </c>
       <c r="C207" t="n">
-        <v>0.847059771823693</v>
+        <v>0.924859690119032</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -3688,14 +3688,14 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44166</v>
+        <v>44044</v>
       </c>
       <c r="C208" t="n">
-        <v>0.3812919426586923</v>
+        <v>0.7117291522473566</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -3704,14 +3704,14 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>44197</v>
+        <v>44044</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1565931008519859</v>
+        <v>0.3703769693065711</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>КТ легких</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -3720,14 +3720,14 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>43831</v>
+        <v>44044</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0009596909757664006</v>
+        <v>0.213048304974405</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -3736,14 +3736,14 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>43862</v>
+        <v>44044</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1022849486239465</v>
+        <v>0.2127844744289953</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -3752,14 +3752,14 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>43891</v>
+        <v>44044</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0.00529034099997075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -3768,14 +3768,14 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>43922</v>
+        <v>44044</v>
       </c>
       <c r="C213" t="n">
-        <v>0.8504134777686502</v>
+        <v>0.0032471273757948</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -3784,10 +3784,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2191709290292096</v>
+        <v>0.01044825148726344</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3800,14 +3800,14 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="C215" t="n">
-        <v>0.04787757516299454</v>
+        <v>0</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -3816,14 +3816,14 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="C216" t="n">
-        <v>0.01897653351232607</v>
+        <v>0.08875080189255241</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -3835,11 +3835,11 @@
         <v>44044</v>
       </c>
       <c r="C217" t="n">
-        <v>0.02842253166372567</v>
+        <v>0.08611079102293112</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -3848,14 +3848,14 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="C218" t="n">
-        <v>0.02172966870094622</v>
+        <v>0.08930976184866116</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -3864,14 +3864,14 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>44105</v>
+        <v>44044</v>
       </c>
       <c r="C219" t="n">
-        <v>0.08115665599645931</v>
+        <v>0.06642680118396319</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -3880,14 +3880,14 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>44136</v>
+        <v>44044</v>
       </c>
       <c r="C220" t="n">
-        <v>0.04860021472184119</v>
+        <v>0.1108924956616108</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -3896,14 +3896,14 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>44166</v>
+        <v>44044</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0194666623574503</v>
+        <v>0.9885525000988928</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -3912,14 +3912,14 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>44197</v>
+        <v>44044</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -3928,14 +3928,14 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>43831</v>
+        <v>44044</v>
       </c>
       <c r="C223" t="n">
-        <v>0.00529034099997075</v>
+        <v>0.4866219384043327</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -3944,14 +3944,14 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>43862</v>
+        <v>44044</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0032471273757948</v>
+        <v>0.3124138986682994</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -3960,14 +3960,14 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>43891</v>
+        <v>44044</v>
       </c>
       <c r="C225" t="n">
-        <v>0.01044825148726344</v>
+        <v>0.1241510258205102</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -3976,14 +3976,14 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>0.1023137502429326</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -3992,14 +3992,14 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>43952</v>
+        <v>44075</v>
       </c>
       <c r="C227" t="n">
-        <v>0.08875080189255241</v>
+        <v>0</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -4008,14 +4008,14 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="C228" t="n">
-        <v>0.08611079102293112</v>
+        <v>0.000601769413222035</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -4024,14 +4024,14 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="C229" t="n">
-        <v>0.08930976184866116</v>
+        <v>0.00394493282001112</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -4040,14 +4040,14 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="C230" t="n">
-        <v>0.06642680118396319</v>
+        <v>0.08293508632399828</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -4059,11 +4059,11 @@
         <v>44075</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1108924956616108</v>
+        <v>0.2166968137893173</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -4072,14 +4072,14 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="C232" t="n">
-        <v>0.9885525000988928</v>
+        <v>0.2113020037865724</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -4088,14 +4088,14 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44136</v>
+        <v>44075</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0.1786164230263019</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -4104,14 +4104,14 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44166</v>
+        <v>44075</v>
       </c>
       <c r="C234" t="n">
-        <v>0.4866219384043327</v>
+        <v>0.1612636453853788</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -4120,14 +4120,14 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>44197</v>
+        <v>44075</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3124138986682994</v>
+        <v>0.2894194156854188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>арепливир</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -4136,14 +4136,14 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>43831</v>
+        <v>44075</v>
       </c>
       <c r="C236" t="n">
-        <v>0.01012956734956386</v>
+        <v>1</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -4152,14 +4152,14 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>43862</v>
+        <v>44075</v>
       </c>
       <c r="C237" t="n">
-        <v>0.05863173219575145</v>
+        <v>0.933594217383042</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -4168,14 +4168,14 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>43891</v>
+        <v>44075</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0.6571638713128426</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -4184,14 +4184,14 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="C239" t="n">
-        <v>0.8744902065601932</v>
+        <v>0.3068812860269846</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -4200,14 +4200,14 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>43952</v>
+        <v>44075</v>
       </c>
       <c r="C240" t="n">
-        <v>0.3046045546090594</v>
+        <v>0.1234894180080377</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -4216,14 +4216,14 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0833707193406633</v>
+        <v>0.1126188582569098</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -4232,14 +4232,14 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="C242" t="n">
-        <v>0.02620593552727207</v>
+        <v>0.02186910318800278</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -4248,14 +4248,14 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="C243" t="n">
-        <v>0.01529877002731064</v>
+        <v>0.03348098122951634</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
         <v>44075</v>
       </c>
       <c r="C244" t="n">
-        <v>0.01743150506131844</v>
+        <v>0.04600390637931606</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4280,14 +4280,14 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="C245" t="n">
-        <v>0.09314175064464873</v>
+        <v>0</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -4296,14 +4296,14 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>44136</v>
+        <v>44075</v>
       </c>
       <c r="C246" t="n">
-        <v>0.07204264361193648</v>
+        <v>0.01333465752971166</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -4312,14 +4312,14 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>44166</v>
+        <v>44075</v>
       </c>
       <c r="C247" t="n">
-        <v>0.02792884907619214</v>
+        <v>0.0295189856655742</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -4328,14 +4328,14 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>44197</v>
+        <v>44075</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>0.09333598172609001</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -4344,14 +4344,14 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>43831</v>
+        <v>44075</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>0.1291700599198861</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -4360,14 +4360,14 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>43862</v>
+        <v>44075</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0004615957081019473</v>
+        <v>0.1498036878869136</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -4376,14 +4376,14 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>43891</v>
+        <v>44075</v>
       </c>
       <c r="C251" t="n">
-        <v>0.03965366191411494</v>
+        <v>0.6382269010494256</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -4392,14 +4392,14 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>43922</v>
+        <v>44075</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1694303532149199</v>
+        <v>0.9784897540305227</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -4408,14 +4408,14 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>43952</v>
+        <v>44075</v>
       </c>
       <c r="C253" t="n">
-        <v>0.2530145025835229</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -4424,14 +4424,14 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>43983</v>
+        <v>44105</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1484041976948476</v>
+        <v>0.8407812758632105</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -4440,14 +4440,14 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1243011299674528</v>
+        <v>0.4449207137418478</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -4456,14 +4456,14 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>44044</v>
+        <v>44105</v>
       </c>
       <c r="C256" t="n">
-        <v>0.09594360996104698</v>
+        <v>0.3328884033502169</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -4472,14 +4472,14 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1368489969713669</v>
+        <v>0.6714257586964735</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -4491,11 +4491,11 @@
         <v>44105</v>
       </c>
       <c r="C258" t="n">
-        <v>0.6972721106699262</v>
+        <v>1</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -4504,14 +4504,14 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0.6515769924595974</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -4520,14 +4520,14 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>44166</v>
+        <v>44105</v>
       </c>
       <c r="C260" t="n">
-        <v>0.8322488189273081</v>
+        <v>0.1074972993970871</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -4536,14 +4536,14 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>44197</v>
+        <v>44105</v>
       </c>
       <c r="C261" t="n">
-        <v>0.6222027535597037</v>
+        <v>0.08186418761075132</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>респиратор</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -4552,14 +4552,14 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -4568,14 +4568,14 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>43862</v>
+        <v>44105</v>
       </c>
       <c r="C263" t="n">
-        <v>0.04004858225544163</v>
+        <v>0.0719398044923133</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -4584,14 +4584,14 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>43891</v>
+        <v>44105</v>
       </c>
       <c r="C264" t="n">
-        <v>0.8913143244622815</v>
+        <v>0.1524736458405394</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -4600,14 +4600,14 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0.2461992007279655</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -4616,14 +4616,14 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>43952</v>
+        <v>44105</v>
       </c>
       <c r="C266" t="n">
-        <v>0.6860191595577025</v>
+        <v>0.8588023690806242</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -4632,14 +4632,14 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>43983</v>
+        <v>44105</v>
       </c>
       <c r="C267" t="n">
-        <v>0.276112897390379</v>
+        <v>0.9219033530047201</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -4648,14 +4648,14 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1664552881229785</v>
+        <v>0.7622458373465445</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -4664,14 +4664,14 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>44044</v>
+        <v>44105</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1157303247785811</v>
+        <v>0.3558516610703434</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -4680,14 +4680,14 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="C270" t="n">
-        <v>0.1247918480623043</v>
+        <v>0.1490998877187755</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -4699,11 +4699,11 @@
         <v>44105</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2762889983752155</v>
+        <v>0.2457043119183061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -4712,14 +4712,14 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="C272" t="n">
-        <v>0.2428116849008322</v>
+        <v>0.025657502785547</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -4728,14 +4728,14 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>44166</v>
+        <v>44105</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1832401181579944</v>
+        <v>0.07339882211155833</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>медицинские маски</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -4744,10 +4744,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>44197</v>
+        <v>44105</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1374506196445095</v>
+        <v>1</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -4760,10 +4760,10 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>43831</v>
+        <v>44105</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>0.8764590581440299</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -4776,14 +4776,14 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>43862</v>
+        <v>44105</v>
       </c>
       <c r="C276" t="n">
-        <v>2.347698902920303e-06</v>
+        <v>0.3155131091252246</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -4792,14 +4792,14 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>43891</v>
+        <v>44105</v>
       </c>
       <c r="C277" t="n">
-        <v>0.002152839893977917</v>
+        <v>0.09774973281488052</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -4808,14 +4808,14 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>43922</v>
+        <v>44105</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1145242740328067</v>
+        <v>0.04148168360734021</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -4824,14 +4824,14 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>43952</v>
+        <v>44105</v>
       </c>
       <c r="C279" t="n">
-        <v>0.3488398845871219</v>
+        <v>0.03074561702708234</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -4840,14 +4840,14 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>43983</v>
+        <v>44105</v>
       </c>
       <c r="C280" t="n">
-        <v>0.2871012726875752</v>
+        <v>0.03284489619573869</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -4856,14 +4856,14 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C281" t="n">
-        <v>0.22695557449366</v>
+        <v>0.1073674875503104</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -4872,14 +4872,14 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="C282" t="n">
-        <v>0.182917438472681</v>
+        <v>0.08659935875571322</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -4888,14 +4888,14 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="C283" t="n">
-        <v>0.2083336267956962</v>
+        <v>0.04317757009345795</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -4904,14 +4904,14 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="C284" t="n">
-        <v>0.507303691286985</v>
+        <v>0.01568683630079359</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -4923,11 +4923,11 @@
         <v>44136</v>
       </c>
       <c r="C285" t="n">
-        <v>0.816758579078716</v>
+        <v>0</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -4936,14 +4936,14 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0.004492803056142983</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -4952,14 +4952,14 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44197</v>
+        <v>44136</v>
       </c>
       <c r="C287" t="n">
-        <v>0.7681529948421055</v>
+        <v>0</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>азитромицин</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -4968,14 +4968,14 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>43831</v>
+        <v>44136</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>0.002869200631086748</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -4984,14 +4984,14 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>43862</v>
+        <v>44136</v>
       </c>
       <c r="C289" t="n">
-        <v>0.05496223375895459</v>
+        <v>0.009164039046775069</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -5000,14 +5000,14 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>43891</v>
+        <v>44136</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0.2816113931461292</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -5016,14 +5016,14 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>43922</v>
+        <v>44136</v>
       </c>
       <c r="C291" t="n">
-        <v>0.5471931598658801</v>
+        <v>0.455593033009928</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -5032,14 +5032,14 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>43952</v>
+        <v>44136</v>
       </c>
       <c r="C292" t="n">
-        <v>0.3379973372099531</v>
+        <v>0.30392917906056</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -5048,14 +5048,14 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1881811252522124</v>
+        <v>0.2354866458899598</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -5064,14 +5064,14 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>44013</v>
+        <v>44136</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1696307450302611</v>
+        <v>0.2144786626578766</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -5080,14 +5080,14 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1706610686473174</v>
+        <v>0.3075387693197804</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -5096,14 +5096,14 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1881095448746064</v>
+        <v>1</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -5112,14 +5112,14 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="C297" t="n">
-        <v>0.4683170064999321</v>
+        <v>0.8703738051676143</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -5131,11 +5131,11 @@
         <v>44136</v>
       </c>
       <c r="C298" t="n">
-        <v>0.3411679141174291</v>
+        <v>0.6627838192044857</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -5144,14 +5144,14 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="C299" t="n">
-        <v>0.2284999659450931</v>
+        <v>0.4191849455126663</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -5160,14 +5160,14 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44197</v>
+        <v>44136</v>
       </c>
       <c r="C300" t="n">
-        <v>0.07175629180673646</v>
+        <v>0.1957819163268125</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>левофлоксацин</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -5176,14 +5176,14 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>43831</v>
+        <v>44136</v>
       </c>
       <c r="C301" t="n">
-        <v>0.02250662659199832</v>
+        <v>0.1688973766545228</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -5192,14 +5192,14 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>43862</v>
+        <v>44136</v>
       </c>
       <c r="C302" t="n">
-        <v>0.02601722608968252</v>
+        <v>0</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -5208,14 +5208,14 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>43891</v>
+        <v>44136</v>
       </c>
       <c r="C303" t="n">
-        <v>0.02516946144378588</v>
+        <v>0.000222675665191031</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -5224,14 +5224,14 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>43922</v>
+        <v>44136</v>
       </c>
       <c r="C304" t="n">
-        <v>0.02238098665167118</v>
+        <v>0.002735129396969089</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -5240,10 +5240,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>43952</v>
+        <v>44136</v>
       </c>
       <c r="C305" t="n">
-        <v>0.03926959688282836</v>
+        <v>0.08771740637468611</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5256,14 +5256,14 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>43983</v>
+        <v>44136</v>
       </c>
       <c r="C306" t="n">
-        <v>0.01069565899775107</v>
+        <v>0.2196702439488938</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -5272,14 +5272,14 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44013</v>
+        <v>44136</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>0.2185092494429607</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -5288,14 +5288,14 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0006485297890672094</v>
+        <v>0.1817915727764294</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -5304,14 +5304,14 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="C309" t="n">
-        <v>0.03602084891126282</v>
+        <v>0.1689716165553055</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -5320,14 +5320,14 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="C310" t="n">
-        <v>0.6289584204985833</v>
+        <v>0.2912723743528051</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -5336,14 +5336,14 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0.9973082853553636</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -5355,11 +5355,11 @@
         <v>44166</v>
       </c>
       <c r="C312" t="n">
-        <v>0.5384728607563851</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -5368,14 +5368,14 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="C313" t="n">
-        <v>0.21035134863701</v>
+        <v>0.7534168110323887</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>цефтриаксон</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -5384,14 +5384,14 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>43831</v>
+        <v>44166</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>0.3401909969007468</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -5400,14 +5400,14 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>43862</v>
+        <v>44166</v>
       </c>
       <c r="C315" t="n">
-        <v>0.006956038036762299</v>
+        <v>0.1381485428748689</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -5416,14 +5416,14 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>43891</v>
+        <v>44166</v>
       </c>
       <c r="C316" t="n">
-        <v>0.02663136659848402</v>
+        <v>0.1194745974682197</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -5432,14 +5432,14 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>43922</v>
+        <v>44166</v>
       </c>
       <c r="C317" t="n">
-        <v>0.05131019817561548</v>
+        <v>0</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -5448,14 +5448,14 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>43952</v>
+        <v>44166</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1039117592178594</v>
+        <v>0</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -5464,14 +5464,14 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>43983</v>
+        <v>44166</v>
       </c>
       <c r="C319" t="n">
-        <v>0.08299365232484042</v>
+        <v>0.428453634403146</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -5480,14 +5480,14 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>44013</v>
+        <v>44166</v>
       </c>
       <c r="C320" t="n">
-        <v>0.06803243193764281</v>
+        <v>0.6471520994545223</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -5496,14 +5496,14 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>44044</v>
+        <v>44166</v>
       </c>
       <c r="C321" t="n">
-        <v>0.06225720934653799</v>
+        <v>1</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -5512,14 +5512,14 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="C322" t="n">
-        <v>0.1230456166539338</v>
+        <v>0.6882849169098059</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -5528,14 +5528,14 @@
         <v>321</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0.4414245845490296</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -5544,14 +5544,14 @@
         <v>322</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9474505441115895</v>
+        <v>0.405365977419764</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -5563,11 +5563,11 @@
         <v>44166</v>
       </c>
       <c r="C325" t="n">
-        <v>0.4617143299734898</v>
+        <v>0.4518901433464417</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -5576,14 +5576,14 @@
         <v>324</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="C326" t="n">
-        <v>0.2294189923285723</v>
+        <v>0.8407015095775719</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>сатурация</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -5592,14 +5592,14 @@
         <v>325</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>43831</v>
+        <v>44166</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>0.9099644805277178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -5608,14 +5608,14 @@
         <v>326</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>43862</v>
+        <v>44166</v>
       </c>
       <c r="C328" t="n">
-        <v>0.010105738204044</v>
+        <v>0.543796777876443</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -5624,14 +5624,14 @@
         <v>327</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>43891</v>
+        <v>44166</v>
       </c>
       <c r="C329" t="n">
-        <v>0.05691111275516882</v>
+        <v>0.2993784092350628</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -5640,14 +5640,14 @@
         <v>328</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>43922</v>
+        <v>44166</v>
       </c>
       <c r="C330" t="n">
-        <v>0.2875817365422811</v>
+        <v>0.3206583787898009</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -5656,14 +5656,14 @@
         <v>329</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>43952</v>
+        <v>44166</v>
       </c>
       <c r="C331" t="n">
-        <v>0.3219936033508426</v>
+        <v>0.2325256881897755</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -5672,14 +5672,14 @@
         <v>330</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>43983</v>
+        <v>44166</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1608566615637645</v>
+        <v>0.01473988663415088</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -5688,14 +5688,14 @@
         <v>331</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44013</v>
+        <v>44166</v>
       </c>
       <c r="C333" t="n">
-        <v>0.09398777579858522</v>
+        <v>0.02261966610578231</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -5704,14 +5704,14 @@
         <v>332</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>44044</v>
+        <v>44166</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0670026235367096</v>
+        <v>0.02322526616161225</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -5720,10 +5720,10 @@
         <v>333</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="C335" t="n">
-        <v>0.117660784101709</v>
+        <v>0</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -5736,14 +5736,14 @@
         <v>334</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="C336" t="n">
-        <v>0.8196659970293142</v>
+        <v>0.005679148282840829</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -5752,14 +5752,14 @@
         <v>335</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0.1105673720369408</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>Смерть от covid</t>
         </is>
       </c>
     </row>
@@ -5768,14 +5768,14 @@
         <v>336</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="C338" t="n">
-        <v>0.8828684760154112</v>
+        <v>0.02316400828144505</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>пропало обоняние</t>
         </is>
       </c>
     </row>
@@ -5787,11 +5787,11 @@
         <v>44197</v>
       </c>
       <c r="C339" t="n">
-        <v>0.5056923917435422</v>
+        <v>0.02030349790249919</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>курантил</t>
+          <t>пропал вкус</t>
         </is>
       </c>
     </row>
@@ -5800,14 +5800,14 @@
         <v>338</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C340" t="n">
-        <v>0.02186910318800278</v>
+        <v>0.03698270046447433</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>кашель</t>
         </is>
       </c>
     </row>
@@ -5816,14 +5816,14 @@
         <v>339</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>43862</v>
+        <v>44197</v>
       </c>
       <c r="C341" t="n">
-        <v>0.03348098122951635</v>
+        <v>0.6228716763722928</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>одышка</t>
         </is>
       </c>
     </row>
@@ -5832,14 +5832,14 @@
         <v>340</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>43891</v>
+        <v>44197</v>
       </c>
       <c r="C342" t="n">
-        <v>0.04600390637931607</v>
+        <v>0.9422074548513915</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>боль в мышцах</t>
         </is>
       </c>
     </row>
@@ -5848,14 +5848,14 @@
         <v>341</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>утомляемость</t>
         </is>
       </c>
     </row>
@@ -5864,14 +5864,14 @@
         <v>342</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>43952</v>
+        <v>44197</v>
       </c>
       <c r="C344" t="n">
-        <v>0.01333465752971167</v>
+        <v>0.6219233423540085</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>высокая температура</t>
         </is>
       </c>
     </row>
@@ -5880,14 +5880,14 @@
         <v>343</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>43983</v>
+        <v>44197</v>
       </c>
       <c r="C345" t="n">
-        <v>0.02951898566557421</v>
+        <v>0.234673511007033</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>симптомы коронавируса</t>
         </is>
       </c>
     </row>
@@ -5896,14 +5896,14 @@
         <v>344</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C346" t="n">
-        <v>0.09333598172609002</v>
+        <v>0.1900149655327497</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>симптомы ковид</t>
         </is>
       </c>
     </row>
@@ -5912,14 +5912,14 @@
         <v>345</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>44044</v>
+        <v>44197</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1291700599198862</v>
+        <v>0.02250662659199831</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>симптомы covid</t>
         </is>
       </c>
     </row>
@@ -5928,14 +5928,14 @@
         <v>346</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>44075</v>
+        <v>44197</v>
       </c>
       <c r="C348" t="n">
-        <v>0.1498036878869137</v>
+        <v>0.02601722608968252</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>коронавирус</t>
         </is>
       </c>
     </row>
@@ -5944,14 +5944,14 @@
         <v>347</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C349" t="n">
-        <v>0.6382269010494257</v>
+        <v>0.02516946144378587</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>не могу сбить температуру</t>
         </is>
       </c>
     </row>
@@ -5960,14 +5960,14 @@
         <v>348</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="C350" t="n">
-        <v>0.978489754030523</v>
+        <v>0.02238098665167118</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>не чувствую запахи</t>
         </is>
       </c>
     </row>
@@ -5976,14 +5976,14 @@
         <v>349</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0.03926959688282836</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>кислород в крови</t>
         </is>
       </c>
     </row>
@@ -5995,11 +5995,11 @@
         <v>44197</v>
       </c>
       <c r="C352" t="n">
-        <v>0.8407812758632107</v>
+        <v>0.01069565899775107</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Заражение covid</t>
+          <t>пневмония взрослый</t>
         </is>
       </c>
     </row>
@@ -6008,14 +6008,14 @@
         <v>351</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C353" t="n">
-        <v>0.001082733147395612</v>
+        <v>0</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>КТ легких</t>
         </is>
       </c>
     </row>
@@ -6024,14 +6024,14 @@
         <v>352</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>43862</v>
+        <v>44197</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>0.0006485297890672093</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>дексаметазон</t>
         </is>
       </c>
     </row>
@@ -6040,14 +6040,14 @@
         <v>353</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>43891</v>
+        <v>44197</v>
       </c>
       <c r="C355" t="n">
-        <v>0.007448929944424268</v>
+        <v>0.03602084891126281</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>арепливир</t>
         </is>
       </c>
     </row>
@@ -6056,14 +6056,14 @@
         <v>354</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>43922</v>
+        <v>44197</v>
       </c>
       <c r="C356" t="n">
-        <v>0.1437910736190013</v>
+        <v>0.6289584204985832</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>ксарелто</t>
         </is>
       </c>
     </row>
@@ -6072,14 +6072,14 @@
         <v>355</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>43952</v>
+        <v>44197</v>
       </c>
       <c r="C357" t="n">
-        <v>0.2662872532156489</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>респиратор</t>
         </is>
       </c>
     </row>
@@ -6088,14 +6088,14 @@
         <v>356</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>43983</v>
+        <v>44197</v>
       </c>
       <c r="C358" t="n">
-        <v>0.2266681285848404</v>
+        <v>0.538472860756385</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>медицинские маски</t>
         </is>
       </c>
     </row>
@@ -6104,14 +6104,14 @@
         <v>357</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="C359" t="n">
-        <v>0.1878713329267374</v>
+        <v>0.2103513486370099</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>азитромицин</t>
         </is>
       </c>
     </row>
@@ -6120,14 +6120,14 @@
         <v>358</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>44044</v>
+        <v>44197</v>
       </c>
       <c r="C360" t="n">
-        <v>0.17209289576295</v>
+        <v>0.04048533611123648</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>левофлоксацин</t>
         </is>
       </c>
     </row>
@@ -6136,14 +6136,14 @@
         <v>359</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>44075</v>
+        <v>44197</v>
       </c>
       <c r="C361" t="n">
-        <v>0.3333755919055418</v>
+        <v>0.03809980365201557</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>цефтриаксон</t>
         </is>
       </c>
     </row>
@@ -6152,14 +6152,14 @@
         <v>360</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>сатурация</t>
         </is>
       </c>
     </row>
@@ -6168,14 +6168,14 @@
         <v>361</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="C363" t="n">
-        <v>0.924859690119032</v>
+        <v>0</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>курантил</t>
         </is>
       </c>
     </row>
@@ -6184,14 +6184,14 @@
         <v>362</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="C364" t="n">
-        <v>0.7117291522473566</v>
+        <v>0.00101311084624553</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Смерть от covid</t>
+          <t>Заражение covid</t>
         </is>
       </c>
     </row>
@@ -6203,11 +6203,907 @@
         <v>44197</v>
       </c>
       <c r="C365" t="n">
-        <v>0.3703769693065711</v>
+        <v>0.06293206197854589</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
           <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.2157330154946365</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.2749106078665077</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.2761025029797378</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>пропало обоняние</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.1900476758045292</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>пропал вкус</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.2087008343265793</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>кашель</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.4265196662693683</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>одышка</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6974970202622169</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>боль в мышцах</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>утомляемость</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.9390941597139452</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>высокая температура</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7551251489868892</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>симптомы коронавируса</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.7460667461263409</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>симптомы ковид</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.03134847613208551</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>симптомы covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.0845877276178814</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>коронавирус</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>не могу сбить температуру</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.5613879642862696</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>не чувствую запахи</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.3587501118838039</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>кислород в крови</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.2136304098708199</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>пневмония взрослый</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.1956615558004977</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>КТ легких</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.1966595803422363</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>дексаметазон</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.2135610734289728</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>арепливир</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4849844581315047</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>ксарелто</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.361821296036771</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>респиратор</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.2526853163485665</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>медицинские маски</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.1008553175377915</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>азитромицин</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.004053450412467782</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>левофлоксацин</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>цефтриаксон</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.05139581112615596</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>сатурация</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.05669672438132004</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>курантил</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.2537236034686411</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Заражение covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Смерть от covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.9055630779868054</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>пропало обоняние</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.5851603238166575</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>пропал вкус</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.07732419117858894</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>кашель</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>одышка</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.2222494310161044</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>боль в мышцах</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.5402177983924404</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>утомляемость</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.6930800034571173</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>высокая температура</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.7201895652674944</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>симптомы коронавируса</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.296894356255942</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>симптомы ковид</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.3550171415401457</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>симптомы covid</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.4943821843219729</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>коронавирус</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>не могу сбить температуру</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.04004858225544163</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>не чувствую запахи</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.8913143244622818</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>кислород в крови</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>пневмония взрослый</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.6860191595577027</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>КТ легких</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.276112897390379</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>дексаметазон</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.1664552881229785</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>арепливир</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.1157303247785812</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>ксарелто</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.1247918480623044</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>респиратор</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.2762889983752156</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>медицинские маски</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.2428116849008323</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>азитромицин</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.1832401181579944</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>левофлоксацин</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.1374506196445096</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>цефтриаксон</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.07476004572792808</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>сатурация</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.07808244606725442</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>курантил</t>
         </is>
       </c>
     </row>
